--- a/input data/担当講師-コマ数表（例）.xlsx
+++ b/input data/担当講師-コマ数表（例）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14895" windowHeight="12300"/>
+    <workbookView windowWidth="16680" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1447,8 +1447,8 @@
   <sheetPr/>
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
